--- a/biology/Médecine/Muscle_adducteur_du_pouce/Muscle_adducteur_du_pouce.xlsx
+++ b/biology/Médecine/Muscle_adducteur_du_pouce/Muscle_adducteur_du_pouce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le muscle adducteur du pouce est un muscle intrinsèque de la main. C'est le muscle le plus superficiel du groupe des muscles de l'éminence thénar.
@@ -517,10 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chef oblique du muscle adducteur du pouce
-Le chef oblique du muscle adducteur du pouce se fixe sur les faces palmaires des trapézoïde et capitatum. 
-Chef transverse du muscle adducteur du pouce
-Le chef transverse du muscle adducteur du pouce se fixe sur les crêtes antérieures des deuxième et troisième métacarpiens avec pour certains auteurs des expansions vers les capsules des deuxième et troisième articulations métacarpo-phalangiennes.
+          <t>Chef oblique du muscle adducteur du pouce</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef oblique du muscle adducteur du pouce se fixe sur les faces palmaires des trapézoïde et capitatum. 
 </t>
         </is>
       </c>
@@ -546,12 +561,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les deux chefs se rejoignent pour former le tendon terminal. Ils forment une arcade laissant passer un paquet vasculo-nerveux et le nerf ulnaire.
+          <t>Chef transverse du muscle adducteur du pouce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef transverse du muscle adducteur du pouce se fixe sur les crêtes antérieures des deuxième et troisième métacarpiens avec pour certains auteurs des expansions vers les capsules des deuxième et troisième articulations métacarpo-phalangiennes.
 </t>
         </is>
       </c>
@@ -577,12 +598,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Terminaison</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle adducteur du pouce se termine sur la tubérosité médiale de la base de la phalange proximale du pouce en englobant généralement l'os sésamoïde médial de l'articulation métacarpo-phalangienne du pouce.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux chefs se rejoignent pour former le tendon terminal. Ils forment une arcade laissant passer un paquet vasculo-nerveux et le nerf ulnaire.
 </t>
         </is>
       </c>
@@ -608,12 +631,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Innervation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle adducteur du pouce est innervé par le rameau profond du nerf ulnaire.
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle adducteur du pouce se termine sur la tubérosité médiale de la base de la phalange proximale du pouce en englobant généralement l'os sésamoïde médial de l'articulation métacarpo-phalangienne du pouce.
 </t>
         </is>
       </c>
@@ -639,10 +664,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle adducteur du pouce est innervé par le rameau profond du nerf ulnaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_adducteur_du_pouce</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_adducteur_du_pouce</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle adducteur du pouce est fléchisseur de la première phalange sur le métacarpe, et adducteur du Ier métacarpien sur le carpe.
 </t>
